--- a/进程表.xlsx
+++ b/进程表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="7130"/>
+    <workbookView windowWidth="18210" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="26">
   <si>
     <t>开始</t>
   </si>
@@ -99,9 +99,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -113,17 +113,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -143,30 +134,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -180,6 +158,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -188,24 +187,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,39 +226,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,25 +266,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -296,157 +434,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -465,36 +465,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -534,6 +504,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -548,15 +557,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -565,10 +565,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -577,137 +577,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -719,9 +719,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1045,16 +1042,16 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="37.4545454545455" customWidth="1"/>
-    <col min="2" max="2" width="20.0909090909091" customWidth="1"/>
-    <col min="3" max="3" width="14.4545454545455" customWidth="1"/>
-    <col min="4" max="4" width="14.7272727272727" customWidth="1"/>
-    <col min="5" max="5" width="8.63636363636364" customWidth="1"/>
+    <col min="1" max="1" width="37.4583333333333" customWidth="1"/>
+    <col min="2" max="2" width="20.0916666666667" customWidth="1"/>
+    <col min="3" max="3" width="14.4583333333333" customWidth="1"/>
+    <col min="4" max="4" width="14.725" customWidth="1"/>
+    <col min="5" max="5" width="8.63333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6">
@@ -1167,7 +1164,9 @@
       <c r="D7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6">
@@ -1183,7 +1182,9 @@
       <c r="D8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6">
@@ -1199,7 +1200,9 @@
       <c r="D9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6">
@@ -1215,7 +1218,9 @@
       <c r="D10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6">
@@ -1231,7 +1236,9 @@
       <c r="D11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6">
@@ -1247,7 +1254,9 @@
       <c r="D12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6">
@@ -1315,7 +1324,7 @@
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B17" s="3">
@@ -1331,7 +1340,7 @@
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B18" s="3">
@@ -1345,7 +1354,7 @@
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B19" s="3">
